--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeInfo__2019-08-04__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeInfo__2019-08-04__v1.0.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -390,11 +390,6 @@
   </si>
   <si>
     <t>ITC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log on to the home page of the system
-2. Type in valid username and password
-</t>
   </si>
   <si>
     <t>1.1.0</t>
@@ -981,6 +976,15 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -989,15 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1338,7 +1333,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
@@ -1712,10 +1707,10 @@
       <c r="C7" s="36"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>16</v>
@@ -1730,14 +1725,14 @@
     <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="30"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
       <c r="G8" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1786,7 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
@@ -1839,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="74"/>
+      <c r="D4" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="77"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="33"/>
@@ -1857,7 +1852,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
@@ -1875,8 +1870,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="33"/>
@@ -1907,24 +1902,24 @@
     </row>
     <row r="8" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="43" t="s">
         <v>13</v>
       </c>
@@ -1979,8 +1974,8 @@
     </row>
     <row r="10" spans="1:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="75" t="s">
-        <v>107</v>
+      <c r="B10" s="72" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>95</v>
@@ -1989,22 +1984,19 @@
         <v>97</v>
       </c>
       <c r="E10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="57" t="s">
-        <v>110</v>
-      </c>
       <c r="G10" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="58"/>
@@ -2013,9 +2005,9 @@
       <c r="O10" s="64"/>
       <c r="P10" s="58"/>
     </row>
-    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="57" t="s">
         <v>95</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="29"/>
@@ -2037,9 +2029,9 @@
       <c r="O11" s="64"/>
       <c r="P11" s="58"/>
     </row>
-    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="57" t="s">
         <v>95</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>99</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="29"/>

--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeInfo__2019-08-04__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeInfo__2019-08-04__v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="(0) Guidelines" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="(2) Test Case Test Log" sheetId="1" r:id="rId3"/>
     <sheet name="(3) Expected Data Reference" sheetId="5" r:id="rId4"/>
     <sheet name="(4) Actual Data Reference" sheetId="6" r:id="rId5"/>
+    <sheet name="Findings" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(2) Test Case Test Log'!#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -430,6 +431,84 @@
   </si>
   <si>
     <t xml:space="preserve">1. Logged on with a normal user (employee)                                          2.Test non- privileged user permission                  3.Employee ID will be auto generated                                  4. Align duplicate ID in a continuous process.                                                            5. Employee File upload (Image, Certificate, signature)     </t>
+  </si>
+  <si>
+    <t>20/08/2019</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>Employee  &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Information &gt; </t>
+  </si>
+  <si>
+    <t>For Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Marriage </t>
+  </si>
+  <si>
+    <t>Date format needed</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For list view Designation needed  </t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful message  </t>
+  </si>
+  <si>
+    <t>Job Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday Name </t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>Employee Basic Information</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandetory Field and Message must be show </t>
+  </si>
+  <si>
+    <t>Search Option needed</t>
+  </si>
+  <si>
+    <t>Add New Employee &gt;</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email format Needed</t>
   </si>
 </sst>
 </file>
@@ -441,7 +520,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +656,40 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +717,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +916,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -994,6 +1117,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1511,7 +1646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
         <v>44</v>
       </c>
@@ -1775,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4267,4 +4402,238 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>